--- a/biology/Botanique/Artemisia_caerulescens/Artemisia_caerulescens.xlsx
+++ b/biology/Botanique/Artemisia_caerulescens/Artemisia_caerulescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia caerulescens, en français Artémis bleuâtre ou Armoise bleutée, est une espèce de plante herbacée méditerranéenne de la famille des Astéracées.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de septembre à novembre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de septembre à novembre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisia caerulescens est présente dans les Sansouires méditerranéennes. La sous-espèce gallica se trouve aussi dans les pelouses et rochers maritimes du nord et ouest méditerranéens.
 </t>
@@ -573,7 +589,9 @@
           <t>Statuts de protection, menaces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'est pas considérée comme étant menacée en France. En 2021, elle est classée Espèce de préoccupation mineure (LC) par l'UICN.
 Toutefois, localement, l'espèce peut se raréfier : en Corse elle est considérée Quasi menacée (NT), proche du seuil des espèces menacées ou qui pourrait être menacée si des mesures de conservation spécifiques ne sont pas prises.
@@ -607,55 +625,196 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Selon POWO
-Selon Plants of the World (POWO), cette espèce n'a que deux synonymes et quatre sous-espèces, ces dernières ayant elles-mêmes des synonymes[1] :
+          <t>Selon POWO</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World (POWO), cette espèce n'a que deux synonymes et quatre sous-espèces, ces dernières ayant elles-mêmes des synonymes :
 Synonymes
-Artemisia lavandulifolia Salisb.[1]
-Seriphidium caerulescens (L.) Soják (es) (1983)[1]
+Artemisia lavandulifolia Salisb.
+Seriphidium caerulescens (L.) Soják (es) (1983)
 Sous-espèces et leurs synonymes
-Artemisia caerulescens subsp. caerulescens[1], dont 9 synonymes[3] :
-Artemisia caerulescens var. latifolia DC.[3]
-Artemisia caerulescens subsp. sipontina (Ten.) Nyman (1879)[3]
-Artemisia dalmatica Rouy (1903)[3]
-Artemisia rubella Moench (1794)[3]
-Artemisia santonica Lam. (1783)[3]
-Artemisia sipontina Ten. (1836)[3]
-Artemisia suaveolens Lam. (1783)[3]
-Seriphidium caerulescens var. latifolium (DC.) Y.R.Ling (1991)[3]
-Seriphidium caerulescens var. sipontinum (Ten.) Y.R.Ling (1991), basionym not validly publ.[3]
-Artemisia caerulescens subsp. cretacea (Fiori (en)) Brilli-Catt. &amp; L.Gubellini[1], dont 3 synonymes[4] :
-Artemisia caerulescens var. cretacea Fiori (en) (1903)[4]
-Artemisia cretacea (Fiori (en)) Pignatti (1973), nom. illeg.[4]
-Seriphidium cretaceum (Fiori (en)) K.Bremer &amp; Humphries (1993)[4]
-Artemisia caerulescens subsp. gallica (Willd.) K.Perss. (sv)[1], dont 7 synonymes[5] :
-Artemisia gallica Willd. (1803)[5]
-Artemisia maritima subsp. gallica (Willd.) Corb. (1894)[5]
-Artemisia maritima var. gallica (Willd.) Hartm. (1820)[5]
-Artemisia maritima proles gallica (Willd.) Rouy (1903)[5]
-Artemisia seriphium var. gallica (Willd.) Wallr. (1822)[5]
-Seriphidium caerulescens subsp. gallicum (Willd.) Soják (es) (1983)[5]
-Seriphidium caerulescens var. gallicum (Willd.) Y.R.Ling (1991)[5]
-Artemisia caerulescens subsp. gargantae Vallès-Xirau &amp; Seoane-Camba[1], dont 2 synonymes[6] :
-Artemisia gallica subsp. gargantae (Vallès-Xirau &amp; Seoane-Camba) Rivas Mart. (es) &amp; Cantó (2002)[6]
-Artemisia gallica var. gargantae (Vallès-Xirau &amp; Seoane-Camba) O.Bolòs (en) &amp; Vigo (es) (1995), without exact basionym[6]
-Selon WORMS
-Le World Register of Marine Species (WORMS) n'a pas de fiche pour Artemisia caerulescens mais en a pour certaines sous-espèces ou variétés.
-Artemisia maritima subsp. caerulescens. Le nom n’est pas accepté. Nom accepté : Artemisia caerulescens L. Taxon parent : Artemisia maritima Besser[7]
-Artemisia palmata Lam. (1783). Le nom n’est pas accepté. Nom accepté : Artemisia caerulescens L. (selon POWO c'est un synonyme de Artemisia maritima subsp. maritima[8]). Selon WORMS il a deux homonymes dont aucun n'est directement relié à Artemisia caerulescens[9] :
-Artemisia palmata Lapeyr. (1913). Le nom n’est pas accepté. Noms acceptés : Artemisia gallica Schur ; Artemisia maritima Pourr. ex Willk. &amp; Lange[10]
-Artemisia palmata Steph. ex Besser (1834). Le nom n’est pas accepté. Nom accepté : Artemisia rutifolia Stephan (it) ex Spreng.[11]
-Seriphidium caerulescens (L.) K.Bremer &amp; Humphries ex Y.R.Ling. Le nom n'est pas accepté. Nom acepté : Artemisia caerulescens L.[12]
-Seriphidium caerulescens var. caerulescens. Le nom n'est pas accepté. Nom accepté : Seriphidium caerulescens (L.) K.Bremer &amp; Humphries ex Y.R.Ling. Basionyme : Artemisia densiflora Viv.[13]
-Seriphidium caerulescens subsp. caerulescens. Le nom n'est pas accepté. Nom accepté : Seriphidium caerulescens (L.) K.Bremer &amp; Humphries ex Y.R.Ling ; Artemisia caerulescens L.[14]
-Selon l'INPI
-Artemisia caerulescens subsp. densiflora (Viv.) Gamisans ex Kerguélen &amp; Lambinon (1987). Basionyme : Artemisia densiflora Viv.. Nom de l'espèce : Artemisia caerulescens L. (1753)[15]. (Selon POWO, c'est un synonyme de Artemisia densiflora[16].)
-Selon NCBI
-Selon le National Center for Biotechnology Information, Artemisia caerulescens a trois ssous-espèces[17] :
+Artemisia caerulescens subsp. caerulescens, dont 9 synonymes :
+Artemisia caerulescens var. latifolia DC.
+Artemisia caerulescens subsp. sipontina (Ten.) Nyman (1879)
+Artemisia dalmatica Rouy (1903)
+Artemisia rubella Moench (1794)
+Artemisia santonica Lam. (1783)
+Artemisia sipontina Ten. (1836)
+Artemisia suaveolens Lam. (1783)
+Seriphidium caerulescens var. latifolium (DC.) Y.R.Ling (1991)
+Seriphidium caerulescens var. sipontinum (Ten.) Y.R.Ling (1991), basionym not validly publ.
+Artemisia caerulescens subsp. cretacea (Fiori (en)) Brilli-Catt. &amp; L.Gubellini, dont 3 synonymes :
+Artemisia caerulescens var. cretacea Fiori (en) (1903)
+Artemisia cretacea (Fiori (en)) Pignatti (1973), nom. illeg.
+Seriphidium cretaceum (Fiori (en)) K.Bremer &amp; Humphries (1993)
+Artemisia caerulescens subsp. gallica (Willd.) K.Perss. (sv), dont 7 synonymes :
+Artemisia gallica Willd. (1803)
+Artemisia maritima subsp. gallica (Willd.) Corb. (1894)
+Artemisia maritima var. gallica (Willd.) Hartm. (1820)
+Artemisia maritima proles gallica (Willd.) Rouy (1903)
+Artemisia seriphium var. gallica (Willd.) Wallr. (1822)
+Seriphidium caerulescens subsp. gallicum (Willd.) Soják (es) (1983)
+Seriphidium caerulescens var. gallicum (Willd.) Y.R.Ling (1991)
+Artemisia caerulescens subsp. gargantae Vallès-Xirau &amp; Seoane-Camba, dont 2 synonymes :
+Artemisia gallica subsp. gargantae (Vallès-Xirau &amp; Seoane-Camba) Rivas Mart. (es) &amp; Cantó (2002)
+Artemisia gallica var. gargantae (Vallès-Xirau &amp; Seoane-Camba) O.Bolòs (en) &amp; Vigo (es) (1995), without exact basionym</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Artemisia_caerulescens</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_caerulescens</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Synonymes, variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Selon WORMS</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le World Register of Marine Species (WORMS) n'a pas de fiche pour Artemisia caerulescens mais en a pour certaines sous-espèces ou variétés.
+Artemisia maritima subsp. caerulescens. Le nom n’est pas accepté. Nom accepté : Artemisia caerulescens L. Taxon parent : Artemisia maritima Besser
+Artemisia palmata Lam. (1783). Le nom n’est pas accepté. Nom accepté : Artemisia caerulescens L. (selon POWO c'est un synonyme de Artemisia maritima subsp. maritima). Selon WORMS il a deux homonymes dont aucun n'est directement relié à Artemisia caerulescens :
+Artemisia palmata Lapeyr. (1913). Le nom n’est pas accepté. Noms acceptés : Artemisia gallica Schur ; Artemisia maritima Pourr. ex Willk. &amp; Lange
+Artemisia palmata Steph. ex Besser (1834). Le nom n’est pas accepté. Nom accepté : Artemisia rutifolia Stephan (it) ex Spreng.
+Seriphidium caerulescens (L.) K.Bremer &amp; Humphries ex Y.R.Ling. Le nom n'est pas accepté. Nom acepté : Artemisia caerulescens L.
+Seriphidium caerulescens var. caerulescens. Le nom n'est pas accepté. Nom accepté : Seriphidium caerulescens (L.) K.Bremer &amp; Humphries ex Y.R.Ling. Basionyme : Artemisia densiflora Viv.
+Seriphidium caerulescens subsp. caerulescens. Le nom n'est pas accepté. Nom accepté : Seriphidium caerulescens (L.) K.Bremer &amp; Humphries ex Y.R.Ling ; Artemisia caerulescens L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Artemisia_caerulescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_caerulescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Synonymes, variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Selon l'INPI</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Artemisia caerulescens subsp. densiflora (Viv.) Gamisans ex Kerguélen &amp; Lambinon (1987). Basionyme : Artemisia densiflora Viv.. Nom de l'espèce : Artemisia caerulescens L. (1753). (Selon POWO, c'est un synonyme de Artemisia densiflora.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Artemisia_caerulescens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_caerulescens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Synonymes, variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Selon NCBI</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon le National Center for Biotechnology Information, Artemisia caerulescens a trois ssous-espèces :
 Artemisia caerulescens subsp. cretacea (Fiori (en)) Brilli-Catt. &amp; L.Gubellini
 Artemisia caerulescens subsp. gallica (Willd.) K.Perss. (sv) (1974)
-Artemisia caerulescens subsp. gargantae Vallès-Xirau &amp; Seoane-Camba
-Selon Tropicos
-Tropicos donne deux variétés et deux sous-spèces[18] :
+Artemisia caerulescens subsp. gargantae Vallès-Xirau &amp; Seoane-Camba</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Artemisia_caerulescens</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Artemisia_caerulescens</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Synonymes, variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Selon Tropicos</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tropicos donne deux variétés et deux sous-spèces :
 Artemisia caerulescens var. angustifolia DC. (1838)
 Artemisia caerulescens L. subsp. caerulescens
 Artemisia caerulescens subsp. gallica (Willd.) K.Perss. (sv) (1974)
